--- a/data/xlsx/02032019.xlsx
+++ b/data/xlsx/02032019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\tiffany\susa\web-dev\police-logs\cleaned\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD5C1393-5367-4352-A3AA-CE1D2231794A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26DBB8F4-3431-4EFE-A01F-7BFD897E2053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{CB80486F-FFAE-4446-9002-9C37EE2C4353}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{7E72BDEE-433E-4DE9-97A6-BEF271B632CA}"/>
   </bookViews>
   <sheets>
     <sheet name="02032019" sheetId="1" r:id="rId1"/>
@@ -638,11 +638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBC7473-618C-49DB-84FA-C65F453495F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478D20BD-7A2D-4DA4-9421-FB43663D730F}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +744,10 @@
         <v>21</v>
       </c>
       <c r="F4" s="6">
-        <v>0</v>
+        <v>37.875087999999998</v>
       </c>
       <c r="G4" s="6">
-        <v>0</v>
+        <v>-122.260554</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>22</v>
@@ -932,10 +932,10 @@
         <v>47</v>
       </c>
       <c r="F11" s="6">
-        <v>0</v>
+        <v>37.883595</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>-122.303265</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>31</v>
